--- a/df_2/df_2_2.xlsx
+++ b/df_2/df_2_2.xlsx
@@ -677,407 +677,407 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.2532 %</t>
+          <t>1,2532</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.3949 %</t>
+          <t>0,3949</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.431 %</t>
+          <t>0,431</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.6846 %</t>
+          <t>0,6846</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.3952 %</t>
+          <t>0,3952</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5178 %</t>
+          <t>0,5178</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.2698 %</t>
+          <t>0,2698</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.4423 %</t>
+          <t>0,4423</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.5232 %</t>
+          <t>0,5232</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.3397 %</t>
+          <t>0,3397</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.2485 %</t>
+          <t>0,2485</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.3028 %</t>
+          <t>0,3028</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.3934 %</t>
+          <t>0,3934</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.4222 %</t>
+          <t>0,4222</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.32 %</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.3813 %</t>
+          <t>0,3813</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.7372 %</t>
+          <t>0,7372</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.5236 %</t>
+          <t>0,5236</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.2433 %</t>
+          <t>0,2433</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>0.4068 %</t>
+          <t>0,4068</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0.5882 %</t>
+          <t>0,5882</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>0.5769 %</t>
+          <t>0,5769</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0.3073 %</t>
+          <t>0,3073</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>0.322 %</t>
+          <t>0,322</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>0.4927 %</t>
+          <t>0,4927</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.556 %</t>
+          <t>0,556</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>0.2541 %</t>
+          <t>0,2541</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>0.5242 %</t>
+          <t>0,5242</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>0.5767 %</t>
+          <t>0,5767</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>0.4712 %</t>
+          <t>0,4712</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>0.6518 %</t>
+          <t>0,6518</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>0.2699 %</t>
+          <t>0,2699</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>0.4708 %</t>
+          <t>0,4708</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.3009 %</t>
+          <t>0,3009</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>0.3736 %</t>
+          <t>0,3736</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>0.3882 %</t>
+          <t>0,3882</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>0.4356 %</t>
+          <t>0,4356</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>0.3845 %</t>
+          <t>0,3845</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>0.2763 %</t>
+          <t>0,2763</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>0.2183 %</t>
+          <t>0,2183</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>0.4331 %</t>
+          <t>0,4331</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>0.3153 %</t>
+          <t>0,3153</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>0.5771 %</t>
+          <t>0,5771</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>0.6692 %</t>
+          <t>0,6692</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>0.393 %</t>
+          <t>0,393</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>0.4678 %</t>
+          <t>0,4678</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>0.2621 %</t>
+          <t>0,2621</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>0.4675 %</t>
+          <t>0,4675</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>0.4381 %</t>
+          <t>0,4381</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>0.6078 %</t>
+          <t>0,6078</t>
         </is>
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
-          <t>0.3712 %</t>
+          <t>0,3712</t>
         </is>
       </c>
       <c r="BA2" t="inlineStr">
         <is>
-          <t>0.6127 %</t>
+          <t>0,6127</t>
         </is>
       </c>
       <c r="BB2" t="inlineStr">
         <is>
-          <t>0.6336 %</t>
+          <t>0,6336</t>
         </is>
       </c>
       <c r="BC2" t="inlineStr">
         <is>
-          <t>0.5125 %</t>
+          <t>0,5125</t>
         </is>
       </c>
       <c r="BD2" t="inlineStr">
         <is>
-          <t>0.3303 %</t>
+          <t>0,3303</t>
         </is>
       </c>
       <c r="BE2" t="inlineStr">
         <is>
-          <t>0.2891 %</t>
+          <t>0,2891</t>
         </is>
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>0.6323 %</t>
+          <t>0,6323</t>
         </is>
       </c>
       <c r="BG2" t="inlineStr">
         <is>
-          <t>0.3471 %</t>
+          <t>0,3471</t>
         </is>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>0.4563 %</t>
+          <t>0,4563</t>
         </is>
       </c>
       <c r="BI2" t="inlineStr">
         <is>
-          <t>0.4458 %</t>
+          <t>0,4458</t>
         </is>
       </c>
       <c r="BJ2" t="inlineStr">
         <is>
-          <t>0.4725 %</t>
+          <t>0,4725</t>
         </is>
       </c>
       <c r="BK2" t="inlineStr">
         <is>
-          <t>0.5814 %</t>
+          <t>0,5814</t>
         </is>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
-          <t>0.4827 %</t>
+          <t>0,4827</t>
         </is>
       </c>
       <c r="BM2" t="inlineStr">
         <is>
-          <t>0.4918 %</t>
+          <t>0,4918</t>
         </is>
       </c>
       <c r="BN2" t="inlineStr">
         <is>
-          <t>0.9379 %</t>
+          <t>0,9379</t>
         </is>
       </c>
       <c r="BO2" t="inlineStr">
         <is>
-          <t>0.7447 %</t>
+          <t>0,7447</t>
         </is>
       </c>
       <c r="BP2" t="inlineStr">
         <is>
-          <t>0.3434 %</t>
+          <t>0,3434</t>
         </is>
       </c>
       <c r="BQ2" t="inlineStr">
         <is>
-          <t>0.2444 %</t>
+          <t>0,2444</t>
         </is>
       </c>
       <c r="BR2" t="inlineStr">
         <is>
-          <t>0.7764 %</t>
+          <t>0,7764</t>
         </is>
       </c>
       <c r="BS2" t="inlineStr">
         <is>
-          <t>1.3553 %</t>
+          <t>1,3553</t>
         </is>
       </c>
       <c r="BT2" t="inlineStr">
         <is>
-          <t>0.3204 %</t>
+          <t>0,3204</t>
         </is>
       </c>
       <c r="BU2" t="inlineStr">
         <is>
-          <t>0.4255 %</t>
+          <t>0,4255</t>
         </is>
       </c>
       <c r="BV2" t="inlineStr">
         <is>
-          <t>0.7595 %</t>
+          <t>0,7595</t>
         </is>
       </c>
       <c r="BW2" t="inlineStr">
         <is>
-          <t>1.0835 %</t>
+          <t>1,0835</t>
         </is>
       </c>
       <c r="BX2" t="inlineStr">
         <is>
-          <t>0.6323 %</t>
+          <t>0,6323</t>
         </is>
       </c>
       <c r="BY2" t="inlineStr">
         <is>
-          <t>0.8597 %</t>
+          <t>0,8597</t>
         </is>
       </c>
       <c r="BZ2" t="inlineStr">
         <is>
-          <t>0.5314 %</t>
+          <t>0,5314</t>
         </is>
       </c>
       <c r="CA2" t="inlineStr">
         <is>
-          <t>0.5864 %</t>
+          <t>0,5864</t>
         </is>
       </c>
       <c r="CB2" t="inlineStr">
         <is>
-          <t>0.5437 %</t>
+          <t>0,5437</t>
         </is>
       </c>
       <c r="CC2" t="inlineStr">
         <is>
-          <t>0.496 %</t>
+          <t>0,496</t>
         </is>
       </c>
       <c r="CD2" t="inlineStr">
         <is>
-          <t>0.5224 %</t>
+          <t>0,5224</t>
         </is>
       </c>
     </row>
@@ -1089,232 +1089,232 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.5528 %</t>
+          <t>0,5528</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.2603 %</t>
+          <t>0,2603</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.2481 %</t>
+          <t>0,2481</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.4588 %</t>
+          <t>0,4588</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.4421 %</t>
+          <t>0,4421</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4098 %</t>
+          <t>0,4098</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.3712 %</t>
+          <t>0,3712</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.3784 %</t>
+          <t>0,3784</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.3952 %</t>
+          <t>0,3952</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.4177 %</t>
+          <t>0,4177</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.2724 %</t>
+          <t>0,2724</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1.166 %</t>
+          <t>1,166</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.4668 %</t>
+          <t>0,4668</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.6757 %</t>
+          <t>0,6757</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.5344 %</t>
+          <t>0,5344</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.3284 %</t>
+          <t>0,3284</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.3303 %</t>
+          <t>0,3303</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.5265 %</t>
+          <t>0,5265</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.2384 %</t>
+          <t>0,2384</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.5148 %</t>
+          <t>0,5148</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>1.2164 %</t>
+          <t>1,2164</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>0.8313 %</t>
+          <t>0,8313</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0.41 %</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>0.4482 %</t>
+          <t>0,4482</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>0.618 %</t>
+          <t>0,618</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.4188 %</t>
+          <t>0,4188</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>0.5429 %</t>
+          <t>0,5429</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>0.2589 %</t>
+          <t>0,2589</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>0.6675 %</t>
+          <t>0,6675</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>0.2446 %</t>
+          <t>0,2446</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>1.0166 %</t>
+          <t>1,0166</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>0.2516 %</t>
+          <t>0,2516</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>0.4931 %</t>
+          <t>0,4931</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0.3363 %</t>
+          <t>0,3363</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>0.7474 %</t>
+          <t>0,7474</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>0.312 %</t>
+          <t>0,312</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>0.3857 %</t>
+          <t>0,3857</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>0.3301 %</t>
+          <t>0,3301</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>0.2976 %</t>
+          <t>0,2976</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>0.403 %</t>
+          <t>0,403</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>0.3339 %</t>
+          <t>0,3339</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>0.3828 %</t>
+          <t>0,3828</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>0.1858 %</t>
+          <t>0,1858</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>0.6058 %</t>
+          <t>0,6058</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>1.7224 %</t>
+          <t>1,7224</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>0.5134 %</t>
+          <t>0,5134</t>
         </is>
       </c>
     </row>
@@ -1326,227 +1326,227 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1.167 %</t>
+          <t>1,167</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.319 %</t>
+          <t>0,319</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.2745 %</t>
+          <t>0,2745</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.1674 %</t>
+          <t>0,1674</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.0839 %</t>
+          <t>0,0839</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1045 %</t>
+          <t>0,1045</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.1264 %</t>
+          <t>0,1264</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.157 %</t>
+          <t>0,157</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.1651 %</t>
+          <t>0,1651</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.156 %</t>
+          <t>0,156</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.1938 %</t>
+          <t>0,1938</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.2352 %</t>
+          <t>0,2352</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.3058 %</t>
+          <t>0,3058</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.3293 %</t>
+          <t>0,3293</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.3375 %</t>
+          <t>0,3375</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.3823 %</t>
+          <t>0,3823</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.4053 %</t>
+          <t>0,4053</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.3999 %</t>
+          <t>0,3999</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.5854 %</t>
+          <t>0,5854</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.6562 %</t>
+          <t>0,6562</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.4706 %</t>
+          <t>0,4706</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0.4975 %</t>
+          <t>0,4975</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0.4961 %</t>
+          <t>0,4961</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0.3499 %</t>
+          <t>0,3499</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0.3298 %</t>
+          <t>0,3298</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.3577 %</t>
+          <t>0,3577</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0.4294 %</t>
+          <t>0,4294</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0.4846 %</t>
+          <t>0,4846</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>0.5361 %</t>
+          <t>0,5361</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>0.6978 %</t>
+          <t>0,6978</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>0.656 %</t>
+          <t>0,656</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>0.611 %</t>
+          <t>0,611</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>0.5469 %</t>
+          <t>0,5469</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0.5364 %</t>
+          <t>0,5364</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>0.5353 %</t>
+          <t>0,5353</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>0.5296 %</t>
+          <t>0,5296</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>0.484 %</t>
+          <t>0,484</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>0.4865 %</t>
+          <t>0,4865</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>0.5226 %</t>
+          <t>0,5226</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>0.6398 %</t>
+          <t>0,6398</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>0.7393 %</t>
+          <t>0,7393</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>0.7446 %</t>
+          <t>0,7446</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>0.7301 %</t>
+          <t>0,7301</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>0.8648 %</t>
+          <t>0,8648</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>0.8459 %</t>
+          <t>0,8459</t>
         </is>
       </c>
     </row>
